--- a/Excel/Project/attendancesheet_1year.xlsx
+++ b/Excel/Project/attendancesheet_1year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dcf2473134df4d/Desktop/EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dcf2473134df4d/Documents/GitHub/jay_patel/Excel/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="11_F25DC773A252ABDACC1048E9A9DD7EE85BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A2B48A-22CF-4A39-A5BF-DB71BA92392A}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_F25DC773A252ABDACC1048E9A9DD7EE85BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C87B019F-4841-473A-A033-D98E62F29689}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>oct</t>
+    <t>jun</t>
   </si>
 </sst>
 </file>
@@ -392,10 +392,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,7 +660,7 @@
   <dimension ref="A2:AJ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +684,7 @@
       </c>
       <c r="D2" s="8">
         <f>DATEVALUE("1"&amp;B2&amp;"2023")</f>
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -697,7 +693,7 @@
       </c>
       <c r="J2" s="8">
         <f>EOMONTH(D2,0)</f>
-        <v>45230</v>
+        <v>45107</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -711,127 +707,127 @@
       </c>
       <c r="C4" s="4">
         <f>D2</f>
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:AG4" si="0">IF(C4&lt;$J$2,C4+1,"")</f>
-        <v>45201</v>
+        <v>45079</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>45202</v>
+        <v>45080</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>45203</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>45204</v>
+        <v>45082</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>45205</v>
+        <v>45083</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>45206</v>
+        <v>45084</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>45207</v>
+        <v>45085</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>45208</v>
+        <v>45086</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>45209</v>
+        <v>45087</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>45210</v>
+        <v>45088</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>45211</v>
+        <v>45089</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>45212</v>
+        <v>45090</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>45213</v>
+        <v>45091</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>45214</v>
+        <v>45092</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>45215</v>
+        <v>45093</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>45216</v>
+        <v>45094</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>45217</v>
+        <v>45095</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>45218</v>
+        <v>45096</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>45219</v>
+        <v>45097</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>45220</v>
+        <v>45098</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>45221</v>
+        <v>45099</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>45222</v>
+        <v>45100</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>45223</v>
+        <v>45101</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>45224</v>
+        <v>45102</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>45225</v>
+        <v>45103</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>45226</v>
+        <v>45104</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>45227</v>
+        <v>45105</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>45228</v>
+        <v>45106</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>45229</v>
-      </c>
-      <c r="AG4" s="4">
+        <v>45107</v>
+      </c>
+      <c r="AG4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>45230</v>
+        <v/>
       </c>
       <c r="AH4" s="9" t="s">
         <v>52</v>
@@ -848,127 +844,127 @@
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="str">
         <f>TEXT(C4,"ddd")</f>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:AG5" si="1">TEXT(D4,"ddd")</f>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="K5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="M5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="N5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="O5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="P5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="R5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="S5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="T5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="V5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="W5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="X5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="Y5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="Z5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="AA5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="AB5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="AC5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="AD5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="AE5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="AF5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="AG5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v/>
       </c>
       <c r="AH5" s="9"/>
       <c r="AI5" s="7"/>
@@ -3163,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1629D-0519-4FFB-85E8-F0AD4A0CE6A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="59" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
